--- a/Bases_de_Dados_(2022-2023)/Estonia Esiliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Esiliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,12 +229,12 @@
     <t>Nõmme United</t>
   </si>
   <si>
+    <t>Tallinna FC Flora U21</t>
+  </si>
+  <si>
     <t>K-Järve JK Järve</t>
   </si>
   <si>
-    <t>Tallinna FC Flora U21</t>
-  </si>
-  <si>
     <t>FC Tallinn</t>
   </si>
   <si>
@@ -262,6 +262,12 @@
     <t>['8', '21', '69', '78']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['64', '90+1']</t>
+  </si>
+  <si>
     <t>['1', '43', '77']</t>
   </si>
   <si>
@@ -281,6 +287,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['14', '42', '63', '79', '81', '88']</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,7 +871,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -886,7 +895,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1053,7 +1062,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1077,7 +1086,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1268,7 +1277,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1459,7 +1468,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1650,7 +1659,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1817,7 +1826,7 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1841,7 +1850,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2032,7 +2041,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2174,6 +2183,388 @@
       </c>
       <c r="BK8">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5129870</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44997.3125</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>1.4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="W9">
+        <v>1.22</v>
+      </c>
+      <c r="X9">
+        <v>3.9</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>1.72</v>
+      </c>
+      <c r="AA9">
+        <v>4.1</v>
+      </c>
+      <c r="AB9">
+        <v>1.2</v>
+      </c>
+      <c r="AC9">
+        <v>1.85</v>
+      </c>
+      <c r="AD9">
+        <v>4.2</v>
+      </c>
+      <c r="AE9">
+        <v>3.06</v>
+      </c>
+      <c r="AF9">
+        <v>1.01</v>
+      </c>
+      <c r="AG9">
+        <v>27</v>
+      </c>
+      <c r="AH9">
+        <v>1.11</v>
+      </c>
+      <c r="AI9">
+        <v>5.55</v>
+      </c>
+      <c r="AJ9">
+        <v>1.33</v>
+      </c>
+      <c r="AK9">
+        <v>2.65</v>
+      </c>
+      <c r="AL9">
+        <v>1.45</v>
+      </c>
+      <c r="AM9">
+        <v>2.55</v>
+      </c>
+      <c r="AN9">
+        <v>1.18</v>
+      </c>
+      <c r="AO9">
+        <v>1.2</v>
+      </c>
+      <c r="AP9">
+        <v>2.25</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>2.04</v>
+      </c>
+      <c r="AW9">
+        <v>2.04</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>11</v>
+      </c>
+      <c r="BG9">
+        <v>5</v>
+      </c>
+      <c r="BH9">
+        <v>6</v>
+      </c>
+      <c r="BI9">
+        <v>5</v>
+      </c>
+      <c r="BJ9">
+        <v>17</v>
+      </c>
+      <c r="BK9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5129869</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44997.3125</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>6.5</v>
+      </c>
+      <c r="U10">
+        <v>2.88</v>
+      </c>
+      <c r="V10">
+        <v>1.67</v>
+      </c>
+      <c r="W10">
+        <v>1.2</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>1.94</v>
+      </c>
+      <c r="Z10">
+        <v>1.79</v>
+      </c>
+      <c r="AA10">
+        <v>4.5</v>
+      </c>
+      <c r="AB10">
+        <v>1.17</v>
+      </c>
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10">
+        <v>5.75</v>
+      </c>
+      <c r="AE10">
+        <v>1.29</v>
+      </c>
+      <c r="AF10">
+        <v>1.01</v>
+      </c>
+      <c r="AG10">
+        <v>24</v>
+      </c>
+      <c r="AH10">
+        <v>1.09</v>
+      </c>
+      <c r="AI10">
+        <v>6</v>
+      </c>
+      <c r="AJ10">
+        <v>1.36</v>
+      </c>
+      <c r="AK10">
+        <v>3.1</v>
+      </c>
+      <c r="AL10">
+        <v>1.66</v>
+      </c>
+      <c r="AM10">
+        <v>2.1</v>
+      </c>
+      <c r="AN10">
+        <v>3.6</v>
+      </c>
+      <c r="AO10">
+        <v>1.06</v>
+      </c>
+      <c r="AP10">
+        <v>1.06</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>3</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>1.14</v>
+      </c>
+      <c r="AW10">
+        <v>1.14</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>3</v>
+      </c>
+      <c r="BG10">
+        <v>7</v>
+      </c>
+      <c r="BH10">
+        <v>3</v>
+      </c>
+      <c r="BI10">
+        <v>4</v>
+      </c>
+      <c r="BJ10">
+        <v>6</v>
+      </c>
+      <c r="BK10">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Esiliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Esiliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -268,6 +268,9 @@
     <t>['64', '90+1']</t>
   </si>
   <si>
+    <t>['20', '28', '32', '53', '66']</t>
+  </si>
+  <si>
     <t>['1', '43', '77']</t>
   </si>
   <si>
@@ -290,6 +293,9 @@
   </si>
   <si>
     <t>['14', '42', '63', '79', '81', '88']</t>
+  </si>
+  <si>
+    <t>['82']</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK10"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +901,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1086,7 +1092,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1277,7 +1283,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1468,7 +1474,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1659,7 +1665,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1850,7 +1856,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2041,7 +2047,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2232,7 +2238,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2423,7 +2429,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2565,6 +2571,197 @@
       </c>
       <c r="BK10">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5129937</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44998.58333333334</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>2.25</v>
+      </c>
+      <c r="U11">
+        <v>2.5</v>
+      </c>
+      <c r="V11">
+        <v>3.75</v>
+      </c>
+      <c r="W11">
+        <v>1.22</v>
+      </c>
+      <c r="X11">
+        <v>3.74</v>
+      </c>
+      <c r="Y11">
+        <v>2.13</v>
+      </c>
+      <c r="Z11">
+        <v>1.6</v>
+      </c>
+      <c r="AA11">
+        <v>4.3</v>
+      </c>
+      <c r="AB11">
+        <v>1.18</v>
+      </c>
+      <c r="AC11">
+        <v>1.75</v>
+      </c>
+      <c r="AD11">
+        <v>4.2</v>
+      </c>
+      <c r="AE11">
+        <v>3.5</v>
+      </c>
+      <c r="AF11">
+        <v>1.02</v>
+      </c>
+      <c r="AG11">
+        <v>15</v>
+      </c>
+      <c r="AH11">
+        <v>1.13</v>
+      </c>
+      <c r="AI11">
+        <v>5.25</v>
+      </c>
+      <c r="AJ11">
+        <v>1.53</v>
+      </c>
+      <c r="AK11">
+        <v>2.4</v>
+      </c>
+      <c r="AL11">
+        <v>1.53</v>
+      </c>
+      <c r="AM11">
+        <v>2.41</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11">
+        <v>1.15</v>
+      </c>
+      <c r="AP11">
+        <v>1.17</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>2.36</v>
+      </c>
+      <c r="AV11">
+        <v>1.23</v>
+      </c>
+      <c r="AW11">
+        <v>3.59</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>7</v>
+      </c>
+      <c r="BG11">
+        <v>3</v>
+      </c>
+      <c r="BH11">
+        <v>5</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>12</v>
+      </c>
+      <c r="BK11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Esiliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Esiliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK12"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2987,6 +2987,209 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5129874</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Estonia Esiliiga</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45003.3125</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FC Tallinn</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Paide Linnameeskond U21</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['50', '87', '90+1']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['69', '81']</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
